--- a/uipath/bid to bid/prestige_bidtobid/prestige.xlsx
+++ b/uipath/bid to bid/prestige_bidtobid/prestige.xlsx
@@ -386,7 +386,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>0.0079316285</x:v>
+        <x:v>0.0083725291</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -411,7 +411,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>80.99548741</x:v>
+        <x:v>84.77546956</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -436,7 +436,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>399</x:v>
+        <x:v>404</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -461,7 +461,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>85.73826061</x:v>
+        <x:v>86.28037886</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -486,7 +486,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>85.44682358</x:v>
+        <x:v>84.51253849</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -511,7 +511,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>110.1942306</x:v>
+        <x:v>109.1185112</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -536,7 +536,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>110.3334513</x:v>
+        <x:v>106.6130543</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -561,7 +561,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="1">
-        <x:v>44048</x:v>
+        <x:v>44056</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -586,7 +586,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="1">
-        <x:v>44048</x:v>
+        <x:v>44056</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/uipath/bid to bid/prestige_bidtobid/prestige.xlsx
+++ b/uipath/bid to bid/prestige_bidtobid/prestige.xlsx
@@ -386,7 +386,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>0.0083725291</x:v>
+        <x:v>-0.0011033036</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -411,7 +411,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>84.77546956</x:v>
+        <x:v>85.4852546459</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -436,7 +436,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>404</x:v>
+        <x:v>405</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -461,7 +461,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>86.28037886</x:v>
+        <x:v>85.58631964</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -486,7 +486,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>84.51253849</x:v>
+        <x:v>82.99811361</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -511,7 +511,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>109.1185112</x:v>
+        <x:v>109.0852792</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -536,7 +536,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>106.6130543</x:v>
+        <x:v>105.558607</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -561,7 +561,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="1">
-        <x:v>44056</x:v>
+        <x:v>44057</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -586,7 +586,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="1">
-        <x:v>44056</x:v>
+        <x:v>44057</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/uipath/bid to bid/prestige_bidtobid/prestige.xlsx
+++ b/uipath/bid to bid/prestige_bidtobid/prestige.xlsx
@@ -386,7 +386,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>-0.0011033036</x:v>
+        <x:v>-0.0054138351</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -411,7 +411,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>85.4852546459</x:v>
+        <x:v>85.1791215374</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -436,7 +436,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>405</x:v>
+        <x:v>407</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -461,7 +461,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>85.58631964</x:v>
+        <x:v>86.47464561</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -486,7 +486,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>82.99811361</x:v>
+        <x:v>83.12887842</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -511,7 +511,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>109.0852792</x:v>
+        <x:v>107.9439372</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -536,7 +536,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>105.558607</x:v>
+        <x:v>105.2677942</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -561,7 +561,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="1">
-        <x:v>44057</x:v>
+        <x:v>44061</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -586,7 +586,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="1">
-        <x:v>44057</x:v>
+        <x:v>44061</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
